--- a/console/Networking/networkExcel1029/netSecurityMixinsXlsx/list.xlsx
+++ b/console/Networking/networkExcel1029/netSecurityMixinsXlsx/list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -665,18 +665,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>No Security Group Data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Name</t>
     </r>
   </si>
@@ -689,30 +677,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Virtual Private Cloud</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Associate with Instance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Associated'</t>
     </r>
   </si>
@@ -749,18 +713,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Action</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Associate Resource</t>
     </r>
   </si>
@@ -833,18 +785,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Create Security Group</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Cancel</t>
     </r>
   </si>
@@ -897,35 +837,39 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Delete Security Group'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Delete security group successfully</t>
-    </r>
+    <t>No Security Group Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associated  Instances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create security group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete security group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security group deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -938,6 +882,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -961,14 +912,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1308,16 +1262,16 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
     <col min="2" max="3" width="40" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1339,7 +1293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1350,18 +1304,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1369,32 +1323,32 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1402,10 +1356,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1413,10 +1367,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1424,21 +1378,21 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1446,10 +1400,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1457,10 +1411,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1468,10 +1422,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1479,10 +1433,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1490,10 +1444,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1501,21 +1455,21 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1523,10 +1477,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1534,10 +1488,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1545,10 +1499,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1556,10 +1510,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1567,34 +1521,35 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B25" numberStoredAsText="1"/>
   </ignoredErrors>
